--- a/biology/Médecine/Syndrome_de_détresse_respiratoire_aigu/Syndrome_de_détresse_respiratoire_aigu.xlsx
+++ b/biology/Médecine/Syndrome_de_détresse_respiratoire_aigu/Syndrome_de_détresse_respiratoire_aigu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de détresse respiratoire aigu (SDRA) — en anglais : Acute respiratory distress syndrome (ARDS) — est une cause de détresse respiratoire par œdème pulmonaire lésionnel. 
 Le SDRA est défini par l'association de quatre critères : détresse respiratoire depuis moins d'une semaine, opacités pulmonaires bilatérales sur la radiographie thoracique ou la tomodensitométrie (TDM), pas d'argument pour une cause cardiaque d'œdème pulmonaire, et hypoxémie.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de détresse respiratoire aigüe a été décrit pour la première fois en 1967[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de détresse respiratoire aigüe a été décrit pour la première fois en 1967.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Critères de Berlin
-L'ARDS Definition task force a proposé, en 2012, un ensemble de critères dits « de Berlin »[2],[3] afin de pallier les imprécisions des précédents critères diagnostiques (imprécision sur la définition du caractère aigu, absence de niveau de PEEP (positive end-expiratory pressure), chevauchements des notions d'acute lung injury (ALI) et acute respiratory distress syndrome, etc.). Un SDRA est présent lorsque les quatre critères suivants sont présents :
+          <t>Critères de Berlin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ARDS Definition task force a proposé, en 2012, un ensemble de critères dits « de Berlin », afin de pallier les imprécisions des précédents critères diagnostiques (imprécision sur la définition du caractère aigu, absence de niveau de PEEP (positive end-expiratory pressure), chevauchements des notions d'acute lung injury (ALI) et acute respiratory distress syndrome, etc.). Un SDRA est présent lorsque les quatre critères suivants sont présents :
 détresse respiratoire apparue depuis moins d'une semaine ;
 opacités pulmonaires bilatérales floconneuses sur la radiographie thoracique ou la TDM, non expliquées par un épanchement, une atélectasie, ou des nodules ;
 pas d'autre cause d'œdème pulmonaire, cardiaque, rénale ou hépatique, ni de surcharge volémique (échocardiographie nécessaire) ;
@@ -558,9 +577,44 @@
 SDRA modéré : PaO2/FiO2 entre 100 et 200 mmHg avec PEEP ≥ 5 cm H2O ;
 SDRA sévère : PaO2/FiO2 ≤ 100 mmHg avec PEEP ≥ 5 cm H2O.
 La notion d'ALI a, par ailleurs, été supprimée aux dépens de celle de SDRA léger.
-Autres définitions
-De nombreuses autres définitions existent :
-celle de la conférence de consensus américano-européenne sur le SDRA (AECC)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres définitions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De nombreuses autres définitions existent :
+celle de la conférence de consensus américano-européenne sur le SDRA (AECC) :
 état clinique du patient : détresse respiratoire d'installation aigüe,
 gaz du sang perturbés : rapport PaO2/FiO2 &lt; 200 [en cas de rapport PaO2/fiO2 &lt; 300, on parle d'ALI (en anglais : acute lung injury)],
 radiographie de poumon : infiltrat bilatéral,
@@ -568,18 +622,18 @@
         ⩽
     {\displaystyle \leqslant }
  18 mmHg, bonne fonction cardiaque à l'échographie ou absence de signes cliniques d'insuffisance cardiaque ;
-définition d'Ashbaugh[5] :
+définition d'Ashbaugh :
 tachypnée,
 hypoxémie,
 cyanose réfractaire à l'oxygénothérapie,
 perte de compliance pulmonaire,
 infiltrat alvéolaire diffus sur la radiographie du thorax ;
-définition de Murray[6], le Lung Injury Score :
+définition de Murray, le Lung Injury Score :
 Faire la somme des items utilisés puis à diviser pas le nombre d'items utilisés. Un Lung Injury Score 
         &gt;
     {\displaystyle &gt;}
  2,5 définit alors le SDRA.
-Définition Delphi du SDRA[7] :
+Définition Delphi du SDRA :
 Hypoxémie : PaO2/FiO2 
         ⩽
     {\displaystyle \leqslant }
@@ -612,45 +666,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épidémiologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il atteint 10 % des patients en réanimation[8]. L'incidence, aux États-Unis, est comprise entre 10 et 90 cas pour 100 000 patients[9].
-L'incidence du SDRA a augmenté en 2020 en raison de la pandémie du COVID-19.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -665,47 +687,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il atteint 10 % des patients en réanimation. L'incidence, aux États-Unis, est comprise entre 10 et 90 cas pour 100 000 patients.
+L'incidence du SDRA a augmenté en 2020 en raison de la pandémie du COVID-19.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de détresse respiratoire aigüe comprend classiquement trois phases[9] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de détresse respiratoire aigüe comprend classiquement trois phases : 
 Phase « exsudative », avec extravasation de liquides et de protéines dans l'alvéole ;
 Phase « proliférative », avec recrutement de macrophages et sécrétion souvent excessive de cytokines (tempête de cytokines) ;
 Phase de « cicatrisation », parfois compliquée par la formation d'une fibrose.
-Dans les lavages alvéolaires de SDRA, on peut observer des Trichomonas, parasites unicellulaires flagellés[10]. Ces Trichomonas se présentent sous une forme amiboïde, sans flagelle, ce qui rend difficile leur identification sous le microscope[11]. La colonisation des espaces alvéolaires par le parasite est un phénomène secondaire, fréquent au-delà de J5, probablement favorisé par l'hypoxie locale du DAD. La transformation amiboïde est un argument en faveur d'une action délétère du parasite, qui reste néanmoins conjecturale.
+Dans les lavages alvéolaires de SDRA, on peut observer des Trichomonas, parasites unicellulaires flagellés. Ces Trichomonas se présentent sous une forme amiboïde, sans flagelle, ce qui rend difficile leur identification sous le microscope. La colonisation des espaces alvéolaires par le parasite est un phénomène secondaire, fréquent au-delà de J5, probablement favorisé par l'hypoxie locale du DAD. La transformation amiboïde est un argument en faveur d'une action délétère du parasite, qui reste néanmoins conjecturale.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Généralement d'installation aiguë[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Généralement d'installation aiguë :
 tachypnée, dyspnée avec hypoxie, hypocapnie initialement, confusion ;
 cyanose réfractaire à l'oxygénothérapie ;
 râles crépitants à l'auscultation, réalisant une insuffisance respiratoire aigüe ;
@@ -713,34 +773,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le SDRA est causé par une altération de la membrane alvéolocapillaire entraînant un syndrome lésionnel appelé « dommage alvéolaire diffus » entraînant une dysfonction sévère de l'oxygénation du sang et une hypoxémie sévère. 
-Le dommage alvéolaire diffus (DAD) comporte 3 stades[12] :
+Le dommage alvéolaire diffus (DAD) comporte 3 stades :
 Phase aigüe, exsudative : dépôt de membranes de fibrine le long des parois alvéolaires :
 infiltrat diffus neutrophilique avec hémorragie, destruction des pneumocytes I,
 œdème riche en protéines, fibrine + surfactant inactivé comblant les alvéoles pulmonaires,
@@ -755,31 +817,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Causes et facteurs de risque</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les causes peuvent être : 
 Pulmonaires :
@@ -796,54 +860,7 @@
 Éclampsie
 Produits de contraste
 Acidocétose
-Il existe des facteurs de risque génétiques[13], dont des variants de l'ACE[14].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Modalités thérapeutiques</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans tous les cas, le traitement de la cause doit être fait lorsque cela est possible (traitement d'une infection par exemple).
-Ventilation mécanique
-Les modalités de la ventilation mécanique au cours du SDRA a fait l'objet de la publication de recommandation par différentes sociétés savantes américaines et européennes[15].
-Elle peut aggraver les dommages aux tissus pulmonaires déjà induits par cette affection. On vise donc à minimiser les risques de volo/barotrauma, quitte à permettre un niveau relativement élevé d'hypercapnie (hypercapnie permissive) et d'hypoxémie. On se basera, pour cela, sur la mesure de la pression alvéolaire (pression de plateau inspiratoire) qui doit être ≤ 30 cm H2O. On cherchera par ailleurs à surveiller l'apparition d'une hyperinflation dynamique (appelée autrement auto-PEEP) potentiellement responsable de tamponnade gazeuse. En gros, le volume courant est réglé à un bas niveau (6 ml/kg) par rapport à d'habitude[16].
-Selon la théorie de l'open lung ventilation certaines alvéoles affaissées peuvent être maintenues ouvertes par un niveau de PEEP plus élevé[17] (selon le niveau de FiO2) après avoir été recrutées par de hautes pressions de ventilation (40-50 cm H2O) : c'est le concept du recrutement alvéolaire. La méthode de recrutement alvéolaire (méthode apnéique, non-apnéique et décubitus ventral) ne fait pas encore l'objet de consensus mis à part l'intérêt démontré récemment pour le décubitus (ou position) ventral à la phase aigüe des SDRA les plus sévères[18].
-Les niveaux de PEEP sont probablement différents selon que le SDRA soit d'allure focale (PEEP probablement non élevée) ou d'allure diffuse (PEEP probablement élevée).
-L'objectif de PaO2 est probablement entre 55 et 80 mmHg.
-Thérapeutique non ventilatoire
-Vasodilatateur inhalé (oxyde nitrique…) ;
-Drainage des épanchements pleuraux[19]
-La sédation est très souvent pratiquée, en revanche, la curarisation des patients fait l'objet de débats, à cause d'importants effets indésirables [19],[20] ;
-ECMO (Extra-corporeal membrane Oxygenation) ;
-Épurateur de CO2 (intérêt discuté) ;
-Corticothérapie à la phase fibroproliférative.
-Thérapeutique n'ayant pas fait la preuve de leur efficacité
-La ventilation oscillatoire à haute fréquence ne fait plus partie des modalités de ventilation utilisées (certains sous-groupes de patients pourraient peut-être encore en bénéficier mais des études complémentaires sont nécessaires)[21],[22].
-La ventilation liquidienne aux perfluorocarbones reste du domaine de la recherche.
+Il existe des facteurs de risque génétiques, dont des variants de l'ACE.
 </t>
         </is>
       </c>
@@ -854,7 +871,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -869,12 +886,167 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Modalités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans tous les cas, le traitement de la cause doit être fait lorsque cela est possible (traitement d'une infection par exemple).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Modalités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ventilation mécanique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les modalités de la ventilation mécanique au cours du SDRA a fait l'objet de la publication de recommandation par différentes sociétés savantes américaines et européennes.
+Elle peut aggraver les dommages aux tissus pulmonaires déjà induits par cette affection. On vise donc à minimiser les risques de volo/barotrauma, quitte à permettre un niveau relativement élevé d'hypercapnie (hypercapnie permissive) et d'hypoxémie. On se basera, pour cela, sur la mesure de la pression alvéolaire (pression de plateau inspiratoire) qui doit être ≤ 30 cm H2O. On cherchera par ailleurs à surveiller l'apparition d'une hyperinflation dynamique (appelée autrement auto-PEEP) potentiellement responsable de tamponnade gazeuse. En gros, le volume courant est réglé à un bas niveau (6 ml/kg) par rapport à d'habitude.
+Selon la théorie de l'open lung ventilation certaines alvéoles affaissées peuvent être maintenues ouvertes par un niveau de PEEP plus élevé (selon le niveau de FiO2) après avoir été recrutées par de hautes pressions de ventilation (40-50 cm H2O) : c'est le concept du recrutement alvéolaire. La méthode de recrutement alvéolaire (méthode apnéique, non-apnéique et décubitus ventral) ne fait pas encore l'objet de consensus mis à part l'intérêt démontré récemment pour le décubitus (ou position) ventral à la phase aigüe des SDRA les plus sévères.
+Les niveaux de PEEP sont probablement différents selon que le SDRA soit d'allure focale (PEEP probablement non élevée) ou d'allure diffuse (PEEP probablement élevée).
+L'objectif de PaO2 est probablement entre 55 et 80 mmHg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Modalités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Thérapeutique non ventilatoire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vasodilatateur inhalé (oxyde nitrique…) ;
+Drainage des épanchements pleuraux
+La sédation est très souvent pratiquée, en revanche, la curarisation des patients fait l'objet de débats, à cause d'importants effets indésirables , ;
+ECMO (Extra-corporeal membrane Oxygenation) ;
+Épurateur de CO2 (intérêt discuté) ;
+Corticothérapie à la phase fibroproliférative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Modalités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Thérapeutique n'ayant pas fait la preuve de leur efficacité</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ventilation oscillatoire à haute fréquence ne fait plus partie des modalités de ventilation utilisées (certains sous-groupes de patients pourraient peut-être encore en bénéficier mais des études complémentaires sont nécessaires),.
+La ventilation liquidienne aux perfluorocarbones reste du domaine de la recherche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_de_détresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_d%C3%A9tresse_respiratoire_aigu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une atteinte grave et la mortalité peut atteindre 50 % dans les formes les plus sévères[8]. Même après guérison, il peut exister des séquelles musculaires, neurologiques, cognitives ou psychologiques[23], avec une baisse de la forme physique sur plusieurs années[24].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une atteinte grave et la mortalité peut atteindre 50 % dans les formes les plus sévères. Même après guérison, il peut exister des séquelles musculaires, neurologiques, cognitives ou psychologiques, avec une baisse de la forme physique sur plusieurs années.
 </t>
         </is>
       </c>
